--- a/Datasets/inboundary_school_v1.xlsx
+++ b/Datasets/inboundary_school_v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="544">
   <si>
     <t>schid</t>
   </si>
@@ -346,9 +346,6 @@
     <t>Number in-boundary in 2014-15</t>
   </si>
   <si>
-    <t>379</t>
-  </si>
-  <si>
     <t>52</t>
   </si>
   <si>
@@ -370,7 +367,7 @@
     <t>56</t>
   </si>
   <si>
-    <t>N&lt;10</t>
+    <t>513</t>
   </si>
   <si>
     <t>14</t>
@@ -379,7 +376,10 @@
     <t>87</t>
   </si>
   <si>
-    <t>444</t>
+    <t>97</t>
+  </si>
+  <si>
+    <t>91</t>
   </si>
   <si>
     <t>78</t>
@@ -391,18 +391,12 @@
     <t>25</t>
   </si>
   <si>
+    <t>315</t>
+  </si>
+  <si>
     <t>38</t>
   </si>
   <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
@@ -433,27 +427,33 @@
     <t>83</t>
   </si>
   <si>
-    <t>301</t>
+    <t>363</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>417</t>
-  </si>
-  <si>
-    <t>133</t>
+    <t>119</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
     <t>84</t>
   </si>
   <si>
-    <t>213</t>
-  </si>
-  <si>
     <t>57</t>
   </si>
   <si>
@@ -466,6 +466,9 @@
     <t>59</t>
   </si>
   <si>
+    <t>248</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -499,36 +502,30 @@
     <t>12</t>
   </si>
   <si>
-    <t>656</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
     <t>137</t>
   </si>
   <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
     <t>1117</t>
   </si>
   <si>
-    <t>854</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
-    <t>618</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>199</t>
+    <t>132</t>
   </si>
   <si>
     <t>499</t>
   </si>
   <si>
+    <t>96</t>
+  </si>
+  <si>
     <t>94</t>
   </si>
   <si>
@@ -559,15 +556,21 @@
     <t>329</t>
   </si>
   <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
     <t>86</t>
   </si>
   <si>
-    <t>502</t>
-  </si>
-  <si>
     <t>440</t>
   </si>
   <si>
+    <t>361</t>
+  </si>
+  <si>
     <t>303</t>
   </si>
   <si>
@@ -613,22 +616,16 @@
     <t>43</t>
   </si>
   <si>
-    <t>599</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>708</t>
+    <t>126</t>
+  </si>
+  <si>
+    <t>885</t>
+  </si>
+  <si>
+    <t>727</t>
+  </si>
+  <si>
+    <t>158</t>
   </si>
   <si>
     <t>16</t>
@@ -637,28 +634,22 @@
     <t>455</t>
   </si>
   <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
     <t>75</t>
   </si>
   <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>1541</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
     <t>228</t>
   </si>
   <si>
-    <t>279</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>596</t>
+    <t>254</t>
   </si>
   <si>
     <t>90</t>
@@ -667,12 +658,6 @@
     <t>24</t>
   </si>
   <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
     <t>93</t>
   </si>
   <si>
@@ -688,52 +673,25 @@
     <t>65</t>
   </si>
   <si>
-    <t>530</t>
-  </si>
-  <si>
-    <t>627</t>
-  </si>
-  <si>
     <t>559</t>
   </si>
   <si>
     <t>760</t>
   </si>
   <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>2048</t>
-  </si>
-  <si>
-    <t>591</t>
-  </si>
-  <si>
-    <t>496</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>679</t>
+    <t>771</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>152</t>
   </si>
   <si>
     <t>175</t>
   </si>
   <si>
-    <t>134</t>
+    <t>468</t>
   </si>
   <si>
     <t>81</t>
@@ -751,6 +709,9 @@
     <t>27</t>
   </si>
   <si>
+    <t>321</t>
+  </si>
+  <si>
     <t>49</t>
   </si>
   <si>
@@ -760,169 +721,109 @@
     <t>72</t>
   </si>
   <si>
+    <t>362</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>965</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>726</t>
-  </si>
-  <si>
-    <t>403</t>
+    <t>183</t>
   </si>
   <si>
     <t>264</t>
   </si>
   <si>
-    <t>429</t>
-  </si>
-  <si>
     <t>353</t>
   </si>
   <si>
     <t>998</t>
   </si>
   <si>
-    <t>187</t>
+    <t>355</t>
   </si>
   <si>
     <t>144</t>
   </si>
   <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>898</t>
-  </si>
-  <si>
-    <t>198</t>
+    <t>558</t>
   </si>
   <si>
     <t>434</t>
   </si>
   <si>
+    <t>164</t>
+  </si>
+  <si>
     <t>544</t>
   </si>
   <si>
+    <t>612</t>
+  </si>
+  <si>
     <t>85</t>
   </si>
   <si>
-    <t>1224</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>367</t>
-  </si>
-  <si>
     <t>305</t>
   </si>
   <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>783</t>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>166</t>
   </si>
   <si>
     <t>447</t>
   </si>
   <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
     <t>1040</t>
   </si>
   <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>407</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>598</t>
-  </si>
-  <si>
-    <t>400</t>
+    <t>383</t>
+  </si>
+  <si>
+    <t>391</t>
   </si>
   <si>
     <t>979</t>
   </si>
   <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>864</t>
-  </si>
-  <si>
-    <t>188</t>
+    <t>767</t>
+  </si>
+  <si>
+    <t>495</t>
   </si>
   <si>
     <t>764</t>
   </si>
   <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>561</t>
-  </si>
-  <si>
-    <t>589</t>
+    <t>1133</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>252</t>
   </si>
   <si>
     <t>290</t>
   </si>
   <si>
+    <t>872</t>
+  </si>
+  <si>
     <t>480</t>
   </si>
   <si>
-    <t>638</t>
-  </si>
-  <si>
-    <t>2372</t>
-  </si>
-  <si>
-    <t>341</t>
-  </si>
-  <si>
-    <t>532</t>
-  </si>
-  <si>
-    <t>443</t>
+    <t>288</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>295</t>
   </si>
   <si>
     <t>830</t>
@@ -931,244 +832,145 @@
     <t>404</t>
   </si>
   <si>
-    <t>419</t>
-  </si>
-  <si>
-    <t>900</t>
+    <t>293</t>
   </si>
   <si>
     <t>463</t>
   </si>
   <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>1033</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>1443</t>
-  </si>
-  <si>
-    <t>1580</t>
-  </si>
-  <si>
-    <t>825</t>
-  </si>
-  <si>
-    <t>1854</t>
-  </si>
-  <si>
-    <t>2013</t>
+    <t>552</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>684</t>
+  </si>
+  <si>
+    <t>981</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>1341</t>
+  </si>
+  <si>
+    <t>374</t>
   </si>
   <si>
     <t>803</t>
   </si>
   <si>
-    <t>696</t>
-  </si>
-  <si>
-    <t>933</t>
-  </si>
-  <si>
-    <t>583</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>1538</t>
-  </si>
-  <si>
-    <t>1822</t>
-  </si>
-  <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>168</t>
+    <t>635</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>672</t>
   </si>
   <si>
     <t>Number in-boundary in 2015-16</t>
   </si>
   <si>
-    <t>159</t>
-  </si>
-  <si>
     <t>585</t>
   </si>
   <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>714</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>788</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>1281</t>
-  </si>
-  <si>
-    <t>705</t>
-  </si>
-  <si>
-    <t>692</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>1072</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>896</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>582</t>
+    <t>266</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>354</t>
   </si>
   <si>
     <t>261</t>
   </si>
   <si>
-    <t>1196</t>
-  </si>
-  <si>
-    <t>710</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>751</t>
-  </si>
-  <si>
-    <t>206</t>
+    <t>231</t>
+  </si>
+  <si>
+    <t>375</t>
   </si>
   <si>
     <t>674</t>
   </si>
   <si>
-    <t>531</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t>555</t>
+    <t>357</t>
   </si>
   <si>
     <t>337</t>
   </si>
   <si>
+    <t>712</t>
+  </si>
+  <si>
     <t>798</t>
   </si>
   <si>
-    <t>428</t>
-  </si>
-  <si>
-    <t>487</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>892</t>
-  </si>
-  <si>
     <t>438</t>
   </si>
   <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>1657</t>
-  </si>
-  <si>
-    <t>874</t>
-  </si>
-  <si>
-    <t>1661</t>
-  </si>
-  <si>
-    <t>1131</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>743</t>
-  </si>
-  <si>
-    <t>1389</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>1044</t>
+    <t>533</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>969</t>
+  </si>
+  <si>
+    <t>477</t>
   </si>
   <si>
     <t>Number in-boundary in 2016-17</t>
   </si>
   <si>
+    <t>327</t>
+  </si>
+  <si>
     <t>323</t>
   </si>
   <si>
     <t>546</t>
   </si>
   <si>
-    <t>437</t>
-  </si>
-  <si>
     <t>756</t>
   </si>
   <si>
-    <t>713</t>
+    <t>1198</t>
+  </si>
+  <si>
+    <t>762</t>
+  </si>
+  <si>
+    <t>729</t>
   </si>
   <si>
     <t>292</t>
@@ -1177,94 +979,73 @@
     <t>277</t>
   </si>
   <si>
-    <t>662</t>
-  </si>
-  <si>
-    <t>1411</t>
-  </si>
-  <si>
-    <t>1041</t>
-  </si>
-  <si>
-    <t>412</t>
-  </si>
-  <si>
-    <t>897</t>
-  </si>
-  <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>622</t>
-  </si>
-  <si>
-    <t>270</t>
+    <t>826</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>631</t>
   </si>
   <si>
     <t>706</t>
   </si>
   <si>
-    <t>669</t>
+    <t>490</t>
+  </si>
+  <si>
+    <t>1518</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>1012</t>
   </si>
   <si>
     <t>255</t>
   </si>
   <si>
-    <t>742</t>
-  </si>
-  <si>
-    <t>827</t>
-  </si>
-  <si>
     <t>418</t>
   </si>
   <si>
-    <t>775</t>
-  </si>
-  <si>
     <t>725</t>
   </si>
   <si>
-    <t>718</t>
-  </si>
-  <si>
-    <t>878</t>
-  </si>
-  <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>492</t>
-  </si>
-  <si>
-    <t>829</t>
+    <t>619</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>855</t>
   </si>
   <si>
     <t>449</t>
   </si>
   <si>
-    <t>840</t>
+    <t>464</t>
+  </si>
+  <si>
+    <t>461</t>
   </si>
   <si>
     <t>1023</t>
   </si>
   <si>
-    <t>1698</t>
-  </si>
-  <si>
-    <t>1650</t>
-  </si>
-  <si>
-    <t>1120</t>
-  </si>
-  <si>
-    <t>739</t>
-  </si>
-  <si>
-    <t>1390</t>
-  </si>
-  <si>
-    <t>1269</t>
+    <t>601</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>942</t>
   </si>
   <si>
     <t>Number in-boundary in 2017-18</t>
@@ -1273,82 +1054,571 @@
     <t>542</t>
   </si>
   <si>
-    <t>689</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>1454</t>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>1182</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>1186</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>701</t>
   </si>
   <si>
     <t>711</t>
   </si>
   <si>
-    <t>1050</t>
-  </si>
-  <si>
     <t>774</t>
   </si>
   <si>
-    <t>593</t>
-  </si>
-  <si>
-    <t>1059</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>655</t>
-  </si>
-  <si>
-    <t>734</t>
-  </si>
-  <si>
-    <t>702</t>
-  </si>
-  <si>
-    <t>469</t>
+    <t>498</t>
+  </si>
+  <si>
+    <t>831</t>
+  </si>
+  <si>
+    <t>954</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>347</t>
   </si>
   <si>
     <t>837</t>
   </si>
   <si>
-    <t>575</t>
-  </si>
-  <si>
-    <t>592</t>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>853</t>
-  </si>
-  <si>
-    <t>1061</t>
-  </si>
-  <si>
-    <t>1591</t>
-  </si>
-  <si>
-    <t>1626</t>
-  </si>
-  <si>
-    <t>1138</t>
-  </si>
-  <si>
-    <t>989</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>1328</t>
-  </si>
-  <si>
-    <t>1086</t>
+    <t>931</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
+    <t>895</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>1353</t>
+  </si>
+  <si>
+    <t>1244</t>
+  </si>
+  <si>
+    <t>1844</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1345</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>871</t>
+  </si>
+  <si>
+    <t>1773</t>
+  </si>
+  <si>
+    <t>1836</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>2136</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>1531</t>
+  </si>
+  <si>
+    <t>5370</t>
+  </si>
+  <si>
+    <t>1147</t>
+  </si>
+  <si>
+    <t>1232</t>
+  </si>
+  <si>
+    <t>961</t>
+  </si>
+  <si>
+    <t>1180</t>
+  </si>
+  <si>
+    <t>3050</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>673</t>
+  </si>
+  <si>
+    <t>1565</t>
+  </si>
+  <si>
+    <t>721</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>1174</t>
+  </si>
+  <si>
+    <t>1255</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>879</t>
+  </si>
+  <si>
+    <t>1337</t>
+  </si>
+  <si>
+    <t>1515</t>
+  </si>
+  <si>
+    <t>4078</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1259</t>
+  </si>
+  <si>
+    <t>1151</t>
+  </si>
+  <si>
+    <t>1792</t>
+  </si>
+  <si>
+    <t>1616</t>
+  </si>
+  <si>
+    <t>2424</t>
+  </si>
+  <si>
+    <t>2559</t>
+  </si>
+  <si>
+    <t>3754</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>3513</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1656</t>
+  </si>
+  <si>
+    <t>2644</t>
+  </si>
+  <si>
+    <t>3198</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>1915</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>2621</t>
+  </si>
+  <si>
+    <t>1141</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>773</t>
+  </si>
+  <si>
+    <t>3077</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>1064</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>1226</t>
+  </si>
+  <si>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>1640</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>2789</t>
+  </si>
+  <si>
+    <t>2646</t>
+  </si>
+  <si>
+    <t>2292</t>
+  </si>
+  <si>
+    <t>1185</t>
+  </si>
+  <si>
+    <t>1463</t>
+  </si>
+  <si>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>1330</t>
+  </si>
+  <si>
+    <t>2447</t>
+  </si>
+  <si>
+    <t>2121</t>
+  </si>
+  <si>
+    <t>2115</t>
+  </si>
+  <si>
+    <t>1085</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>2878</t>
+  </si>
+  <si>
+    <t>1179</t>
+  </si>
+  <si>
+    <t>869</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>962</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>737</t>
+  </si>
+  <si>
+    <t>3132</t>
+  </si>
+  <si>
+    <t>993</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>835</t>
+  </si>
+  <si>
+    <t>1230</t>
+  </si>
+  <si>
+    <t>2148</t>
+  </si>
+  <si>
+    <t>1292</t>
+  </si>
+  <si>
+    <t>1084</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>1274</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>1273</t>
+  </si>
+  <si>
+    <t>1834</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>1784</t>
+  </si>
+  <si>
+    <t>2931</t>
+  </si>
+  <si>
+    <t>2751</t>
+  </si>
+  <si>
+    <t>2398</t>
+  </si>
+  <si>
+    <t>2160</t>
+  </si>
+  <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>2492</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>661</t>
+  </si>
+  <si>
+    <t>1290</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>956</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>894</t>
+  </si>
+  <si>
+    <t>995</t>
+  </si>
+  <si>
+    <t>1272</t>
+  </si>
+  <si>
+    <t>2858</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>1184</t>
+  </si>
+  <si>
+    <t>881</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>889</t>
+  </si>
+  <si>
+    <t>3140</t>
+  </si>
+  <si>
+    <t>988</t>
+  </si>
+  <si>
+    <t>865</t>
+  </si>
+  <si>
+    <t>1254</t>
+  </si>
+  <si>
+    <t>2137</t>
+  </si>
+  <si>
+    <t>1284</t>
+  </si>
+  <si>
+    <t>1067</t>
+  </si>
+  <si>
+    <t>2156</t>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>1314</t>
+  </si>
+  <si>
+    <t>1148</t>
+  </si>
+  <si>
+    <t>1421</t>
+  </si>
+  <si>
+    <t>1916</t>
+  </si>
+  <si>
+    <t>2779</t>
+  </si>
+  <si>
+    <t>2726</t>
+  </si>
+  <si>
+    <t>2489</t>
+  </si>
+  <si>
+    <t>1374</t>
+  </si>
+  <si>
+    <t>1534</t>
+  </si>
+  <si>
+    <t>2114</t>
+  </si>
+  <si>
+    <t>1568</t>
+  </si>
+  <si>
+    <t>2359</t>
+  </si>
+  <si>
+    <t>2181</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>876</t>
+  </si>
+  <si>
+    <t>2188</t>
   </si>
   <si>
     <t>1. Source: OSSE student-level enrollment and boundary data</t>
@@ -1360,22 +1630,22 @@
     <t>3. Students were excluded if they had missing school IDs or grade levels outside of PK-12 (e.g., adult or non-grade level sped), or attended private schools/centers and juvenile detention centers.</t>
   </si>
   <si>
+    <t>In-boundary rate in 2014-15 (%)</t>
+  </si>
+  <si>
     <t>Percent in-boundary in 2014-15</t>
   </si>
   <si>
-    <t>In-boundary rate in 2014-15 (%)</t>
-  </si>
-  <si>
     <t>In-boundary rate in 2015-16 (%)</t>
   </si>
   <si>
     <t>Percent in-boundary in 2015-16 (%)</t>
   </si>
   <si>
+    <t>In-boundary rate in 2016-17 (%)</t>
+  </si>
+  <si>
     <t>Percent in-boundary in 2016-17 (%)</t>
-  </si>
-  <si>
-    <t>In-boundary rate in 2016-17 (%)</t>
   </si>
   <si>
     <t>In-boundary rate in 2017-18 (%)</t>
@@ -1388,15 +1658,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1432,14 +1697,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1722,14 +1983,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="4" max="4" width="13.36328125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
@@ -1748,37 +2006,37 @@
         <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>447</v>
+        <v>536</v>
       </c>
       <c r="G1" t="s">
-        <v>446</v>
+        <v>537</v>
       </c>
       <c r="H1" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="I1" t="s">
-        <v>448</v>
+        <v>538</v>
       </c>
       <c r="J1" t="s">
-        <v>449</v>
+        <v>539</v>
       </c>
       <c r="K1" t="s">
-        <v>377</v>
+        <v>309</v>
       </c>
       <c r="L1" t="s">
-        <v>451</v>
+        <v>540</v>
       </c>
       <c r="M1" t="s">
-        <v>450</v>
+        <v>541</v>
       </c>
       <c r="N1" t="s">
-        <v>415</v>
+        <v>342</v>
       </c>
       <c r="O1" t="s">
-        <v>452</v>
+        <v>542</v>
       </c>
       <c r="P1" t="s">
-        <v>453</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1795,40 +2053,40 @@
         <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>375</v>
       </c>
       <c r="F2" t="s">
         <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="I2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K2" t="s">
-        <v>234</v>
+        <v>338</v>
       </c>
       <c r="L2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N2" t="s">
-        <v>270</v>
+        <v>487</v>
       </c>
       <c r="O2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1845,40 +2103,40 @@
         <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H3" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="I3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K3" t="s">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="L3" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="M3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N3" t="s">
-        <v>248</v>
+        <v>141</v>
       </c>
       <c r="O3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1895,40 +2153,40 @@
         <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="F4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" t="s">
         <v>109</v>
       </c>
-      <c r="G4" t="s">
-        <v>110</v>
-      </c>
       <c r="H4" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K4" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="L4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M4" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="N4" t="s">
-        <v>247</v>
+        <v>488</v>
       </c>
       <c r="O4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1945,40 +2203,40 @@
         <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>376</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H5" t="s">
-        <v>327</v>
+        <v>417</v>
       </c>
       <c r="I5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J5" t="s">
         <v>147</v>
       </c>
       <c r="K5" t="s">
-        <v>379</v>
+        <v>248</v>
       </c>
       <c r="L5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M5" t="s">
         <v>145</v>
       </c>
       <c r="N5" t="s">
-        <v>416</v>
+        <v>489</v>
       </c>
       <c r="O5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1995,40 +2253,40 @@
         <v>103</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>336</v>
       </c>
       <c r="F6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H6" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="I6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K6" t="s">
-        <v>256</v>
+        <v>352</v>
       </c>
       <c r="L6" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="M6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N6" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="O6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2045,40 +2303,40 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>213</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H7" t="s">
-        <v>189</v>
+        <v>317</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="J7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K7" t="s">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c r="L7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M7" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="N7" t="s">
-        <v>116</v>
+        <v>237</v>
       </c>
       <c r="O7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2095,40 +2353,40 @@
         <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>377</v>
       </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G8" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H8" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="I8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K8" t="s">
-        <v>381</v>
+        <v>452</v>
       </c>
       <c r="L8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N8" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="O8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2154,31 +2412,31 @@
         <v>164</v>
       </c>
       <c r="H9" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="I9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K9" t="s">
-        <v>378</v>
+        <v>453</v>
       </c>
       <c r="L9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M9" t="s">
         <v>145</v>
       </c>
       <c r="N9" t="s">
-        <v>418</v>
+        <v>490</v>
       </c>
       <c r="O9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2195,40 +2453,40 @@
         <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>378</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H10" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="I10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K10" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N10" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2245,25 +2503,25 @@
         <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>379</v>
       </c>
       <c r="F11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G11" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="H11" t="s">
-        <v>181</v>
+        <v>323</v>
       </c>
       <c r="I11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="L11" t="s">
         <v>122</v>
@@ -2272,13 +2530,13 @@
         <v>144</v>
       </c>
       <c r="N11" t="s">
-        <v>300</v>
+        <v>491</v>
       </c>
       <c r="O11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2295,40 +2553,40 @@
         <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="F12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H12" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="I12" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="J12" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="K12" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="L12" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="M12" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="N12" t="s">
-        <v>287</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="P12" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2345,40 +2603,40 @@
         <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="F13" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H13" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="I13" t="s">
         <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K13" t="s">
-        <v>244</v>
+        <v>362</v>
       </c>
       <c r="L13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N13" t="s">
-        <v>383</v>
+        <v>492</v>
       </c>
       <c r="O13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2395,40 +2653,40 @@
         <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>182</v>
+        <v>304</v>
       </c>
       <c r="F14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" t="s">
+        <v>256</v>
+      </c>
+      <c r="I14" t="s">
+        <v>228</v>
+      </c>
+      <c r="J14" t="s">
         <v>114</v>
       </c>
-      <c r="H14" t="s">
-        <v>332</v>
-      </c>
-      <c r="I14" t="s">
-        <v>242</v>
-      </c>
-      <c r="J14" t="s">
-        <v>115</v>
-      </c>
       <c r="K14" t="s">
-        <v>383</v>
+        <v>244</v>
       </c>
       <c r="L14" t="s">
         <v>122</v>
       </c>
       <c r="M14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N14" t="s">
-        <v>367</v>
+        <v>287</v>
       </c>
       <c r="O14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2445,40 +2703,40 @@
         <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="H15" t="s">
-        <v>177</v>
+        <v>310</v>
       </c>
       <c r="I15" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="J15" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="K15" t="s">
-        <v>203</v>
+        <v>293</v>
       </c>
       <c r="L15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M15" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="N15" t="s">
-        <v>177</v>
+        <v>281</v>
       </c>
       <c r="O15" t="s">
         <v>120</v>
       </c>
       <c r="P15" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2495,40 +2753,40 @@
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>197</v>
+        <v>380</v>
       </c>
       <c r="F16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H16" t="s">
-        <v>333</v>
+        <v>419</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>288</v>
+        <v>454</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s">
-        <v>369</v>
+        <v>493</v>
       </c>
       <c r="O16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2545,40 +2803,40 @@
         <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>199</v>
+        <v>381</v>
       </c>
       <c r="F17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" t="s">
+        <v>324</v>
+      </c>
+      <c r="I17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" t="s">
+        <v>225</v>
+      </c>
+      <c r="K17" t="s">
+        <v>355</v>
+      </c>
+      <c r="L17" t="s">
+        <v>194</v>
+      </c>
+      <c r="M17" t="s">
+        <v>175</v>
+      </c>
+      <c r="N17" t="s">
+        <v>308</v>
+      </c>
+      <c r="O17" t="s">
         <v>172</v>
       </c>
-      <c r="G17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17" t="s">
-        <v>250</v>
-      </c>
-      <c r="I17" t="s">
-        <v>177</v>
-      </c>
-      <c r="J17" t="s">
-        <v>239</v>
-      </c>
-      <c r="K17" t="s">
-        <v>326</v>
-      </c>
-      <c r="L17" t="s">
-        <v>193</v>
-      </c>
-      <c r="M17" t="s">
-        <v>176</v>
-      </c>
-      <c r="N17" t="s">
-        <v>291</v>
-      </c>
-      <c r="O17" t="s">
-        <v>173</v>
-      </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2595,40 +2853,40 @@
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>249</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c r="H18" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="I18" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="J18" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>328</v>
       </c>
       <c r="L18" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="M18" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="N18" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="O18" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2645,40 +2903,40 @@
         <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>204</v>
+        <v>306</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H19" t="s">
-        <v>335</v>
+        <v>420</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K19" t="s">
-        <v>385</v>
+        <v>529</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N19" t="s">
-        <v>231</v>
+        <v>494</v>
       </c>
       <c r="O19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2695,40 +2953,40 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>207</v>
+        <v>382</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H20" t="s">
-        <v>336</v>
+        <v>421</v>
       </c>
       <c r="I20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J20" t="s">
         <v>120</v>
       </c>
       <c r="K20" t="s">
-        <v>386</v>
+        <v>455</v>
       </c>
       <c r="L20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N20" t="s">
-        <v>419</v>
+        <v>495</v>
       </c>
       <c r="O20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2745,7 +3003,7 @@
         <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>383</v>
       </c>
       <c r="F21" t="s">
         <v>122</v>
@@ -2754,31 +3012,31 @@
         <v>145</v>
       </c>
       <c r="H21" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="I21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>320</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N21" t="s">
-        <v>271</v>
+        <v>496</v>
       </c>
       <c r="O21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2795,40 +3053,40 @@
         <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="H22" t="s">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="I22" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="J22" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="K22" t="s">
-        <v>116</v>
+        <v>289</v>
       </c>
       <c r="L22" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M22" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="N22" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="O22" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2845,40 +3103,40 @@
         <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>275</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="H23" t="s">
-        <v>116</v>
+        <v>301</v>
       </c>
       <c r="I23" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="J23" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s">
-        <v>116</v>
+        <v>353</v>
       </c>
       <c r="L23" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="M23" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="N23" t="s">
-        <v>116</v>
+        <v>323</v>
       </c>
       <c r="O23" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="P23" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2895,40 +3153,40 @@
         <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>220</v>
+        <v>322</v>
       </c>
       <c r="F24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H24" t="s">
-        <v>232</v>
+        <v>354</v>
       </c>
       <c r="I24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K24" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="L24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N24" t="s">
-        <v>224</v>
+        <v>497</v>
       </c>
       <c r="O24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2945,40 +3203,40 @@
         <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="F25" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="H25" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="I25" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="J25" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="K25" t="s">
-        <v>116</v>
+        <v>296</v>
       </c>
       <c r="L25" t="s">
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="N25" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="P25" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2995,40 +3253,40 @@
         <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>222</v>
+        <v>313</v>
       </c>
       <c r="F26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H26" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="I26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K26" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="L26" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N26" t="s">
-        <v>420</v>
+        <v>498</v>
       </c>
       <c r="O26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3045,40 +3303,40 @@
         <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>283</v>
       </c>
       <c r="F27" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="H27" t="s">
-        <v>116</v>
+        <v>422</v>
       </c>
       <c r="I27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K27" t="s">
-        <v>116</v>
+        <v>315</v>
       </c>
       <c r="L27" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="M27" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="N27" t="s">
-        <v>116</v>
+        <v>379</v>
       </c>
       <c r="O27" t="s">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="P27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3095,37 +3353,37 @@
         <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>225</v>
+        <v>384</v>
       </c>
       <c r="F28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H28" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K28" t="s">
-        <v>276</v>
+        <v>345</v>
       </c>
       <c r="L28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N28" t="s">
-        <v>266</v>
+        <v>499</v>
       </c>
       <c r="O28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P28" t="s">
         <v>144</v>
@@ -3145,40 +3403,40 @@
         <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>230</v>
+        <v>385</v>
       </c>
       <c r="F29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H29" t="s">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="I29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K29" t="s">
-        <v>387</v>
+        <v>456</v>
       </c>
       <c r="L29" t="s">
         <v>122</v>
       </c>
       <c r="M29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N29" t="s">
-        <v>421</v>
+        <v>500</v>
       </c>
       <c r="O29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3195,40 +3453,40 @@
         <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>235</v>
+        <v>386</v>
       </c>
       <c r="F30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H30" t="s">
-        <v>251</v>
+        <v>329</v>
       </c>
       <c r="I30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K30" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="L30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N30" t="s">
-        <v>279</v>
+        <v>501</v>
       </c>
       <c r="O30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3245,40 +3503,40 @@
         <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>239</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H31" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="I31" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="J31" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="K31" t="s">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="L31" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="M31" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="N31" t="s">
-        <v>122</v>
+        <v>305</v>
       </c>
       <c r="O31" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="P31" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3295,40 +3553,40 @@
         <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>294</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="H32" t="s">
-        <v>116</v>
+        <v>277</v>
       </c>
       <c r="I32" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J32" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="K32" t="s">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="M32" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="N32" t="s">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="O32" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="P32" t="s">
-        <v>116</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3345,40 +3603,40 @@
         <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>288</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="G33" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="H33" t="s">
-        <v>116</v>
+        <v>247</v>
       </c>
       <c r="I33" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="J33" t="s">
-        <v>116</v>
+        <v>246</v>
       </c>
       <c r="K33" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="L33" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M33" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="N33" t="s">
-        <v>116</v>
+        <v>339</v>
       </c>
       <c r="O33" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P33" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3395,40 +3653,40 @@
         <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>146</v>
+        <v>350</v>
       </c>
       <c r="F34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H34" t="s">
-        <v>184</v>
+        <v>284</v>
       </c>
       <c r="I34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J34" t="s">
         <v>145</v>
       </c>
       <c r="K34" t="s">
-        <v>145</v>
+        <v>441</v>
       </c>
       <c r="L34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N34" t="s">
-        <v>243</v>
+        <v>340</v>
       </c>
       <c r="O34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P34" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3445,40 +3703,40 @@
         <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="F35" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H35" t="s">
-        <v>283</v>
+        <v>162</v>
       </c>
       <c r="I35" t="s">
         <v>122</v>
       </c>
       <c r="J35" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="K35" t="s">
-        <v>388</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N35" t="s">
-        <v>360</v>
+        <v>268</v>
       </c>
       <c r="O35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3495,40 +3753,40 @@
         <v>103</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>262</v>
       </c>
       <c r="F36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G36" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="H36" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="I36" t="s">
+        <v>173</v>
+      </c>
+      <c r="J36" t="s">
         <v>174</v>
       </c>
-      <c r="J36" t="s">
-        <v>175</v>
-      </c>
       <c r="K36" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="L36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N36" t="s">
-        <v>124</v>
+        <v>359</v>
       </c>
       <c r="O36" t="s">
+        <v>197</v>
+      </c>
+      <c r="P36" t="s">
         <v>196</v>
-      </c>
-      <c r="P36" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3545,40 +3803,40 @@
         <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>249</v>
+        <v>387</v>
       </c>
       <c r="F37" t="s">
         <v>122</v>
       </c>
       <c r="G37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H37" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="I37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K37" t="s">
-        <v>389</v>
+        <v>457</v>
       </c>
       <c r="L37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N37" t="s">
-        <v>402</v>
+        <v>502</v>
       </c>
       <c r="O37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3595,40 +3853,40 @@
         <v>103</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>241</v>
       </c>
       <c r="F38" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="G38" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="H38" t="s">
-        <v>116</v>
+        <v>303</v>
       </c>
       <c r="I38" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="J38" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="K38" t="s">
-        <v>116</v>
+        <v>355</v>
       </c>
       <c r="L38" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="M38" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="N38" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="O38" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="P38" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3645,40 +3903,40 @@
         <v>103</v>
       </c>
       <c r="E39" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="F39" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G39" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="H39" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="I39" t="s">
         <v>122</v>
       </c>
       <c r="J39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K39" t="s">
-        <v>390</v>
+        <v>458</v>
       </c>
       <c r="L39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M39" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="N39" t="s">
-        <v>354</v>
+        <v>503</v>
       </c>
       <c r="O39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3695,40 +3953,40 @@
         <v>103</v>
       </c>
       <c r="E40" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="F40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H40" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K40" t="s">
-        <v>391</v>
+        <v>349</v>
       </c>
       <c r="L40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N40" t="s">
-        <v>423</v>
+        <v>349</v>
       </c>
       <c r="O40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3745,40 +4003,40 @@
         <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>256</v>
+        <v>181</v>
       </c>
       <c r="F41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H41" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="I41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K41" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N41" t="s">
-        <v>362</v>
+        <v>203</v>
       </c>
       <c r="O41" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3795,40 +4053,40 @@
         <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>116</v>
+        <v>299</v>
       </c>
       <c r="F42" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G42" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="H42" t="s">
-        <v>189</v>
+        <v>426</v>
       </c>
       <c r="I42" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="J42" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="K42" t="s">
-        <v>148</v>
+        <v>459</v>
       </c>
       <c r="L42" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="M42" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="N42" t="s">
-        <v>116</v>
+        <v>242</v>
       </c>
       <c r="O42" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="P42" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3845,40 +4103,40 @@
         <v>103</v>
       </c>
       <c r="E43" t="s">
-        <v>259</v>
+        <v>367</v>
       </c>
       <c r="F43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H43" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="I43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K43" t="s">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="L43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N43" t="s">
-        <v>202</v>
+        <v>504</v>
       </c>
       <c r="O43" t="s">
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3895,37 +4153,37 @@
         <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>261</v>
+        <v>373</v>
       </c>
       <c r="F44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H44" t="s">
-        <v>343</v>
+        <v>250</v>
       </c>
       <c r="I44" t="s">
         <v>122</v>
       </c>
       <c r="J44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K44" t="s">
-        <v>226</v>
+        <v>334</v>
       </c>
       <c r="L44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M44" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="N44" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="O44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P44" t="s">
         <v>146</v>
@@ -3945,40 +4203,40 @@
         <v>103</v>
       </c>
       <c r="E45" t="s">
-        <v>255</v>
+        <v>388</v>
       </c>
       <c r="F45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G45" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="H45" t="s">
-        <v>137</v>
+        <v>358</v>
       </c>
       <c r="I45" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="J45" t="s">
         <v>146</v>
       </c>
       <c r="K45" t="s">
-        <v>253</v>
+        <v>461</v>
       </c>
       <c r="L45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M45" t="s">
         <v>146</v>
       </c>
       <c r="N45" t="s">
-        <v>339</v>
+        <v>505</v>
       </c>
       <c r="O45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3995,37 +4253,37 @@
         <v>103</v>
       </c>
       <c r="E46" t="s">
-        <v>263</v>
+        <v>325</v>
       </c>
       <c r="F46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H46" t="s">
-        <v>303</v>
+        <v>427</v>
       </c>
       <c r="I46" t="s">
         <v>122</v>
       </c>
       <c r="J46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K46" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="L46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M46" t="s">
         <v>144</v>
       </c>
       <c r="N46" t="s">
-        <v>276</v>
+        <v>506</v>
       </c>
       <c r="O46" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P46" t="s">
         <v>144</v>
@@ -4045,40 +4303,40 @@
         <v>103</v>
       </c>
       <c r="E47" t="s">
-        <v>265</v>
+        <v>389</v>
       </c>
       <c r="F47" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G47" t="s">
         <v>144</v>
       </c>
       <c r="H47" t="s">
-        <v>347</v>
+        <v>274</v>
       </c>
       <c r="I47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K47" t="s">
-        <v>334</v>
+        <v>462</v>
       </c>
       <c r="L47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M47" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N47" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="O47" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -4095,40 +4353,40 @@
         <v>103</v>
       </c>
       <c r="E48" t="s">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="F48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G48" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H48" t="s">
-        <v>173</v>
+        <v>318</v>
       </c>
       <c r="I48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J48" t="s">
         <v>120</v>
       </c>
       <c r="K48" t="s">
-        <v>189</v>
+        <v>290</v>
       </c>
       <c r="L48" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="M48" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="N48" t="s">
-        <v>171</v>
+        <v>270</v>
       </c>
       <c r="O48" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4145,37 +4403,37 @@
         <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>268</v>
+        <v>390</v>
       </c>
       <c r="F49" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H49" t="s">
-        <v>348</v>
+        <v>428</v>
       </c>
       <c r="I49" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="J49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K49" t="s">
-        <v>162</v>
+        <v>463</v>
       </c>
       <c r="L49" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="M49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N49" t="s">
-        <v>424</v>
+        <v>507</v>
       </c>
       <c r="O49" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="P49" t="s">
         <v>145</v>
@@ -4195,40 +4453,40 @@
         <v>103</v>
       </c>
       <c r="E50" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="F50" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G50" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="H50" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="I50" t="s">
-        <v>116</v>
+        <v>213</v>
       </c>
       <c r="J50" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="K50" t="s">
-        <v>116</v>
+        <v>221</v>
       </c>
       <c r="L50" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M50" t="s">
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="N50" t="s">
-        <v>116</v>
+        <v>243</v>
       </c>
       <c r="O50" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4245,40 +4503,40 @@
         <v>103</v>
       </c>
       <c r="E51" t="s">
-        <v>273</v>
+        <v>344</v>
       </c>
       <c r="F51" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G51" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H51" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="I51" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K51" t="s">
-        <v>394</v>
+        <v>464</v>
       </c>
       <c r="L51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M51" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N51" t="s">
-        <v>426</v>
+        <v>508</v>
       </c>
       <c r="O51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4295,40 +4553,40 @@
         <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H52" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="I52" t="s">
+        <v>158</v>
+      </c>
+      <c r="J52" t="s">
+        <v>188</v>
+      </c>
+      <c r="K52" t="s">
+        <v>241</v>
+      </c>
+      <c r="L52" t="s">
+        <v>194</v>
+      </c>
+      <c r="M52" t="s">
         <v>157</v>
       </c>
-      <c r="J52" t="s">
-        <v>187</v>
-      </c>
-      <c r="K52" t="s">
-        <v>255</v>
-      </c>
-      <c r="L52" t="s">
-        <v>193</v>
-      </c>
-      <c r="M52" t="s">
-        <v>156</v>
-      </c>
       <c r="N52" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="O52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P52" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4345,40 +4603,40 @@
         <v>103</v>
       </c>
       <c r="E53" t="s">
-        <v>253</v>
+        <v>391</v>
       </c>
       <c r="F53" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G53" t="s">
+        <v>174</v>
+      </c>
+      <c r="H53" t="s">
+        <v>166</v>
+      </c>
+      <c r="I53" t="s">
+        <v>151</v>
+      </c>
+      <c r="J53" t="s">
+        <v>173</v>
+      </c>
+      <c r="K53" t="s">
+        <v>304</v>
+      </c>
+      <c r="L53" t="s">
+        <v>151</v>
+      </c>
+      <c r="M53" t="s">
+        <v>173</v>
+      </c>
+      <c r="N53" t="s">
+        <v>140</v>
+      </c>
+      <c r="O53" t="s">
+        <v>234</v>
+      </c>
+      <c r="P53" t="s">
         <v>175</v>
-      </c>
-      <c r="H53" t="s">
-        <v>209</v>
-      </c>
-      <c r="I53" t="s">
-        <v>150</v>
-      </c>
-      <c r="J53" t="s">
-        <v>174</v>
-      </c>
-      <c r="K53" t="s">
-        <v>342</v>
-      </c>
-      <c r="L53" t="s">
-        <v>150</v>
-      </c>
-      <c r="M53" t="s">
-        <v>174</v>
-      </c>
-      <c r="N53" t="s">
-        <v>307</v>
-      </c>
-      <c r="O53" t="s">
-        <v>246</v>
-      </c>
-      <c r="P53" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4395,40 +4653,40 @@
         <v>103</v>
       </c>
       <c r="E54" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="F54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G54" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="H54" t="s">
+        <v>328</v>
+      </c>
+      <c r="I54" t="s">
+        <v>188</v>
+      </c>
+      <c r="J54" t="s">
         <v>214</v>
       </c>
-      <c r="I54" t="s">
-        <v>187</v>
-      </c>
-      <c r="J54" t="s">
-        <v>116</v>
-      </c>
       <c r="K54" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="L54" t="s">
         <v>146</v>
       </c>
       <c r="M54" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="N54" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="O54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4445,40 +4703,40 @@
         <v>103</v>
       </c>
       <c r="E55" t="s">
-        <v>274</v>
+        <v>392</v>
       </c>
       <c r="F55" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G55" t="s">
         <v>147</v>
       </c>
       <c r="H55" t="s">
-        <v>159</v>
+        <v>429</v>
       </c>
       <c r="I55" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J55" t="s">
         <v>147</v>
       </c>
       <c r="K55" t="s">
-        <v>316</v>
+        <v>465</v>
       </c>
       <c r="L55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N55" t="s">
-        <v>427</v>
+        <v>163</v>
       </c>
       <c r="O55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4495,40 +4753,40 @@
         <v>103</v>
       </c>
       <c r="E56" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="F56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H56" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="I56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J56" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="K56" t="s">
-        <v>367</v>
+        <v>530</v>
       </c>
       <c r="L56" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="M56" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="N56" t="s">
-        <v>425</v>
+        <v>338</v>
       </c>
       <c r="O56" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4545,40 +4803,40 @@
         <v>103</v>
       </c>
       <c r="E57" t="s">
-        <v>277</v>
+        <v>393</v>
       </c>
       <c r="F57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G57" t="s">
         <v>121</v>
       </c>
       <c r="H57" t="s">
-        <v>349</v>
+        <v>254</v>
       </c>
       <c r="I57" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="J57" t="s">
         <v>144</v>
       </c>
       <c r="K57" t="s">
-        <v>306</v>
+        <v>466</v>
       </c>
       <c r="L57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M57" t="s">
         <v>147</v>
       </c>
       <c r="N57" t="s">
-        <v>428</v>
+        <v>307</v>
       </c>
       <c r="O57" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="P57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4595,40 +4853,40 @@
         <v>103</v>
       </c>
       <c r="E58" t="s">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="G58" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H58" t="s">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c r="I58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J58" t="s">
         <v>121</v>
       </c>
       <c r="K58" t="s">
-        <v>189</v>
+        <v>373</v>
       </c>
       <c r="L58" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="M58" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="N58" t="s">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="O58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4645,40 +4903,40 @@
         <v>103</v>
       </c>
       <c r="E59" t="s">
-        <v>280</v>
+        <v>394</v>
       </c>
       <c r="F59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G59" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H59" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="I59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K59" t="s">
-        <v>375</v>
+        <v>467</v>
       </c>
       <c r="L59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M59" t="s">
         <v>144</v>
       </c>
       <c r="N59" t="s">
-        <v>429</v>
+        <v>509</v>
       </c>
       <c r="O59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4695,40 +4953,40 @@
         <v>103</v>
       </c>
       <c r="E60" t="s">
-        <v>200</v>
+        <v>304</v>
       </c>
       <c r="F60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G60" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H60" t="s">
-        <v>350</v>
+        <v>219</v>
       </c>
       <c r="I60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K60" t="s">
-        <v>395</v>
+        <v>468</v>
       </c>
       <c r="L60" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M60" t="s">
         <v>144</v>
       </c>
       <c r="N60" t="s">
-        <v>294</v>
+        <v>365</v>
       </c>
       <c r="O60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4745,40 +5003,40 @@
         <v>103</v>
       </c>
       <c r="E61" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="F61" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G61" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="H61" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="I61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K61" t="s">
-        <v>396</v>
+        <v>469</v>
       </c>
       <c r="L61" t="s">
         <v>122</v>
       </c>
       <c r="M61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N61" t="s">
-        <v>422</v>
+        <v>510</v>
       </c>
       <c r="O61" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P61" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4795,40 +5053,40 @@
         <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="F62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H62" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I62" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="J62" t="s">
         <v>147</v>
       </c>
       <c r="K62" t="s">
-        <v>252</v>
+        <v>320</v>
       </c>
       <c r="L62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M62" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N62" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="O62" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P62" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4845,37 +5103,37 @@
         <v>103</v>
       </c>
       <c r="E63" t="s">
-        <v>285</v>
+        <v>395</v>
       </c>
       <c r="F63" t="s">
         <v>122</v>
       </c>
       <c r="G63" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H63" t="s">
-        <v>163</v>
+        <v>430</v>
       </c>
       <c r="I63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J63" t="s">
         <v>121</v>
       </c>
       <c r="K63" t="s">
-        <v>397</v>
+        <v>470</v>
       </c>
       <c r="L63" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N63" t="s">
-        <v>405</v>
+        <v>511</v>
       </c>
       <c r="O63" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="P63" t="s">
         <v>145</v>
@@ -4895,37 +5153,37 @@
         <v>103</v>
       </c>
       <c r="E64" t="s">
-        <v>286</v>
+        <v>396</v>
       </c>
       <c r="F64" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H64" t="s">
-        <v>300</v>
+        <v>431</v>
       </c>
       <c r="I64" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K64" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="L64" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M64" t="s">
         <v>144</v>
       </c>
       <c r="N64" t="s">
-        <v>139</v>
+        <v>361</v>
       </c>
       <c r="O64" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P64" t="s">
         <v>144</v>
@@ -4945,40 +5203,40 @@
         <v>103</v>
       </c>
       <c r="E65" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="F65" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H65" t="s">
-        <v>351</v>
+        <v>432</v>
       </c>
       <c r="I65" t="s">
         <v>122</v>
       </c>
       <c r="J65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K65" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="L65" t="s">
         <v>122</v>
       </c>
       <c r="M65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N65" t="s">
-        <v>430</v>
+        <v>368</v>
       </c>
       <c r="O65" t="s">
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4995,40 +5253,40 @@
         <v>103</v>
       </c>
       <c r="E66" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="F66" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G66" t="s">
         <v>122</v>
       </c>
       <c r="H66" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="I66" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J66" t="s">
         <v>122</v>
       </c>
       <c r="K66" t="s">
-        <v>340</v>
+        <v>267</v>
       </c>
       <c r="L66" t="s">
         <v>146</v>
       </c>
       <c r="M66" t="s">
+        <v>151</v>
+      </c>
+      <c r="N66" t="s">
+        <v>267</v>
+      </c>
+      <c r="O66" t="s">
         <v>150</v>
       </c>
-      <c r="N66" t="s">
-        <v>160</v>
-      </c>
-      <c r="O66" t="s">
-        <v>149</v>
-      </c>
       <c r="P66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -5054,28 +5312,28 @@
         <v>164</v>
       </c>
       <c r="H67" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="I67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J67" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K67" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="L67" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="M67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N67" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="O67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P67" t="s">
         <v>145</v>
@@ -5095,40 +5353,40 @@
         <v>103</v>
       </c>
       <c r="E68" t="s">
-        <v>290</v>
+        <v>393</v>
       </c>
       <c r="F68" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G68" t="s">
         <v>145</v>
       </c>
       <c r="H68" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="I68" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="J68" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K68" t="s">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="L68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N68" t="s">
-        <v>382</v>
+        <v>512</v>
       </c>
       <c r="O68" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -5145,40 +5403,40 @@
         <v>103</v>
       </c>
       <c r="E69" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="F69" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G69" t="s">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="H69" t="s">
-        <v>173</v>
+        <v>311</v>
       </c>
       <c r="I69" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="J69" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="K69" t="s">
-        <v>192</v>
+        <v>348</v>
       </c>
       <c r="L69" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M69" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="N69" t="s">
-        <v>153</v>
+        <v>347</v>
       </c>
       <c r="O69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P69" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5195,40 +5453,40 @@
         <v>103</v>
       </c>
       <c r="E70" t="s">
-        <v>254</v>
+        <v>397</v>
       </c>
       <c r="F70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G70" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H70" t="s">
-        <v>165</v>
+        <v>434</v>
       </c>
       <c r="I70" t="s">
+        <v>156</v>
+      </c>
+      <c r="J70" t="s">
+        <v>130</v>
+      </c>
+      <c r="K70" t="s">
+        <v>472</v>
+      </c>
+      <c r="L70" t="s">
+        <v>208</v>
+      </c>
+      <c r="M70" t="s">
+        <v>187</v>
+      </c>
+      <c r="N70" t="s">
+        <v>371</v>
+      </c>
+      <c r="O70" t="s">
         <v>155</v>
       </c>
-      <c r="J70" t="s">
-        <v>132</v>
-      </c>
-      <c r="K70" t="s">
-        <v>197</v>
-      </c>
-      <c r="L70" t="s">
-        <v>211</v>
-      </c>
-      <c r="M70" t="s">
-        <v>186</v>
-      </c>
-      <c r="N70" t="s">
-        <v>431</v>
-      </c>
-      <c r="O70" t="s">
-        <v>154</v>
-      </c>
       <c r="P70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5245,37 +5503,37 @@
         <v>103</v>
       </c>
       <c r="E71" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="F71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H71" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="I71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J71" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K71" t="s">
-        <v>208</v>
+        <v>473</v>
       </c>
       <c r="L71" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M71" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="N71" t="s">
-        <v>384</v>
+        <v>513</v>
       </c>
       <c r="O71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P71" t="s">
         <v>144</v>
@@ -5295,40 +5553,40 @@
         <v>103</v>
       </c>
       <c r="E72" t="s">
-        <v>202</v>
+        <v>398</v>
       </c>
       <c r="F72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G72" t="s">
         <v>121</v>
       </c>
       <c r="H72" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="I72" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K72" t="s">
-        <v>401</v>
+        <v>474</v>
       </c>
       <c r="L72" t="s">
         <v>122</v>
       </c>
       <c r="M72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N72" t="s">
-        <v>356</v>
+        <v>514</v>
       </c>
       <c r="O72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P72" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5345,40 +5603,40 @@
         <v>103</v>
       </c>
       <c r="E73" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="F73" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G73" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="H73" t="s">
-        <v>169</v>
+        <v>300</v>
       </c>
       <c r="I73" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J73" t="s">
         <v>122</v>
       </c>
       <c r="K73" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="L73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M73" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="N73" t="s">
-        <v>184</v>
+        <v>294</v>
       </c>
       <c r="O73" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5395,40 +5653,40 @@
         <v>103</v>
       </c>
       <c r="E74" t="s">
-        <v>293</v>
+        <v>399</v>
       </c>
       <c r="F74" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H74" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="I74" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K74" t="s">
-        <v>292</v>
+        <v>363</v>
       </c>
       <c r="L74" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N74" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="O74" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5445,13 +5703,13 @@
         <v>103</v>
       </c>
       <c r="E75" t="s">
-        <v>295</v>
+        <v>400</v>
       </c>
       <c r="F75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G75" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H75" t="s">
         <v>164</v>
@@ -5504,28 +5762,28 @@
         <v>164</v>
       </c>
       <c r="H76" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="I76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J76" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K76" t="s">
-        <v>384</v>
+        <v>218</v>
       </c>
       <c r="L76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M76" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N76" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="O76" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P76" t="s">
         <v>144</v>
@@ -5545,40 +5803,40 @@
         <v>103</v>
       </c>
       <c r="E77" t="s">
-        <v>296</v>
+        <v>401</v>
       </c>
       <c r="F77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G77" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H77" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I77" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K77" t="s">
-        <v>258</v>
+        <v>531</v>
       </c>
       <c r="L77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M77" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N77" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="O77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P77" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5595,40 +5853,40 @@
         <v>103</v>
       </c>
       <c r="E78" t="s">
-        <v>297</v>
+        <v>402</v>
       </c>
       <c r="F78" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H78" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="I78" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J78" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K78" t="s">
-        <v>403</v>
+        <v>307</v>
       </c>
       <c r="L78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M78" t="s">
         <v>147</v>
       </c>
       <c r="N78" t="s">
-        <v>432</v>
+        <v>515</v>
       </c>
       <c r="O78" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5645,40 +5903,40 @@
         <v>104</v>
       </c>
       <c r="E79" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="F79" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G79" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H79" t="s">
-        <v>113</v>
+        <v>437</v>
       </c>
       <c r="I79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J79" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K79" t="s">
-        <v>120</v>
+        <v>475</v>
       </c>
       <c r="L79" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M79" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N79" t="s">
-        <v>118</v>
+        <v>516</v>
       </c>
       <c r="O79" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="P79" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5695,40 +5953,40 @@
         <v>104</v>
       </c>
       <c r="E80" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="F80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G80" t="s">
         <v>122</v>
       </c>
       <c r="H80" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="I80" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J80" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K80" t="s">
-        <v>326</v>
+        <v>459</v>
       </c>
       <c r="L80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N80" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="O80" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P80" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5745,40 +6003,40 @@
         <v>103</v>
       </c>
       <c r="E81" t="s">
-        <v>178</v>
+        <v>403</v>
       </c>
       <c r="F81" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G81" t="s">
+        <v>151</v>
+      </c>
+      <c r="H81" t="s">
+        <v>251</v>
+      </c>
+      <c r="I81" t="s">
+        <v>136</v>
+      </c>
+      <c r="J81" t="s">
+        <v>154</v>
+      </c>
+      <c r="K81" t="s">
+        <v>476</v>
+      </c>
+      <c r="L81" t="s">
+        <v>230</v>
+      </c>
+      <c r="M81" t="s">
+        <v>196</v>
+      </c>
+      <c r="N81" t="s">
+        <v>517</v>
+      </c>
+      <c r="O81" t="s">
+        <v>192</v>
+      </c>
+      <c r="P81" t="s">
         <v>150</v>
-      </c>
-      <c r="H81" t="s">
-        <v>355</v>
-      </c>
-      <c r="I81" t="s">
-        <v>138</v>
-      </c>
-      <c r="J81" t="s">
-        <v>153</v>
-      </c>
-      <c r="K81" t="s">
-        <v>358</v>
-      </c>
-      <c r="L81" t="s">
-        <v>243</v>
-      </c>
-      <c r="M81" t="s">
-        <v>195</v>
-      </c>
-      <c r="N81" t="s">
-        <v>433</v>
-      </c>
-      <c r="O81" t="s">
-        <v>191</v>
-      </c>
-      <c r="P81" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5795,37 +6053,37 @@
         <v>104</v>
       </c>
       <c r="E82" t="s">
-        <v>301</v>
+        <v>404</v>
       </c>
       <c r="F82" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G82" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H82" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="I82" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J82" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K82" t="s">
-        <v>312</v>
+        <v>372</v>
       </c>
       <c r="L82" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M82" t="s">
         <v>121</v>
       </c>
       <c r="N82" t="s">
-        <v>434</v>
+        <v>518</v>
       </c>
       <c r="O82" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P82" t="s">
         <v>121</v>
@@ -5845,37 +6103,37 @@
         <v>104</v>
       </c>
       <c r="E83" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="F83" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G83" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H83" t="s">
-        <v>361</v>
+        <v>255</v>
       </c>
       <c r="I83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K83" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="L83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M83" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N83" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="O83" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P83" t="s">
         <v>147</v>
@@ -5895,40 +6153,40 @@
         <v>104</v>
       </c>
       <c r="E84" t="s">
-        <v>306</v>
+        <v>405</v>
       </c>
       <c r="F84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G84" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H84" t="s">
-        <v>363</v>
+        <v>439</v>
       </c>
       <c r="I84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J84" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K84" t="s">
-        <v>405</v>
+        <v>477</v>
       </c>
       <c r="L84" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N84" t="s">
-        <v>315</v>
+        <v>477</v>
       </c>
       <c r="O84" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5945,40 +6203,40 @@
         <v>104</v>
       </c>
       <c r="E85" t="s">
-        <v>308</v>
+        <v>406</v>
       </c>
       <c r="F85" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G85" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H85" t="s">
-        <v>365</v>
+        <v>440</v>
       </c>
       <c r="I85" t="s">
+        <v>171</v>
+      </c>
+      <c r="J85" t="s">
+        <v>246</v>
+      </c>
+      <c r="K85" t="s">
+        <v>478</v>
+      </c>
+      <c r="L85" t="s">
         <v>172</v>
       </c>
-      <c r="J85" t="s">
-        <v>267</v>
-      </c>
-      <c r="K85" t="s">
-        <v>284</v>
-      </c>
-      <c r="L85" t="s">
-        <v>173</v>
-      </c>
       <c r="M85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N85" t="s">
-        <v>435</v>
+        <v>519</v>
       </c>
       <c r="O85" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P85" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5995,37 +6253,37 @@
         <v>104</v>
       </c>
       <c r="E86" t="s">
-        <v>309</v>
+        <v>217</v>
       </c>
       <c r="F86" t="s">
         <v>122</v>
       </c>
       <c r="G86" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H86" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="I86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J86" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K86" t="s">
-        <v>406</v>
+        <v>479</v>
       </c>
       <c r="L86" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M86" t="s">
         <v>145</v>
       </c>
       <c r="N86" t="s">
-        <v>180</v>
+        <v>341</v>
       </c>
       <c r="O86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P86" t="s">
         <v>145</v>
@@ -6045,40 +6303,40 @@
         <v>104</v>
       </c>
       <c r="E87" t="s">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="F87" t="s">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="G87" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="I87" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J87" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K87" t="s">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="L87" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M87" t="s">
         <v>122</v>
       </c>
       <c r="N87" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="O87" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P87" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -6095,40 +6353,40 @@
         <v>104</v>
       </c>
       <c r="E88" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="F88" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G88" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H88" t="s">
-        <v>201</v>
+        <v>297</v>
       </c>
       <c r="I88" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J88" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K88" t="s">
-        <v>352</v>
+        <v>215</v>
       </c>
       <c r="L88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M88" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="N88" t="s">
-        <v>272</v>
+        <v>346</v>
       </c>
       <c r="O88" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -6145,40 +6403,40 @@
         <v>104</v>
       </c>
       <c r="E89" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="F89" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G89" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H89" t="s">
-        <v>167</v>
+        <v>441</v>
       </c>
       <c r="I89" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K89" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="L89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M89" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N89" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="O89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P89" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6195,40 +6453,40 @@
         <v>105</v>
       </c>
       <c r="E90" t="s">
-        <v>273</v>
+        <v>407</v>
       </c>
       <c r="F90" t="s">
         <v>146</v>
       </c>
       <c r="G90" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H90" t="s">
-        <v>285</v>
+        <v>442</v>
       </c>
       <c r="I90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J90" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="K90" t="s">
-        <v>407</v>
+        <v>480</v>
       </c>
       <c r="L90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M90" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N90" t="s">
-        <v>434</v>
+        <v>369</v>
       </c>
       <c r="O90" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P90" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -6245,37 +6503,37 @@
         <v>106</v>
       </c>
       <c r="E91" t="s">
-        <v>310</v>
+        <v>408</v>
       </c>
       <c r="F91" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G91" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H91" t="s">
-        <v>368</v>
+        <v>443</v>
       </c>
       <c r="I91" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J91" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K91" t="s">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="L91" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M91" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N91" t="s">
-        <v>436</v>
+        <v>520</v>
       </c>
       <c r="O91" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P91" t="s">
         <v>121</v>
@@ -6295,25 +6553,25 @@
         <v>106</v>
       </c>
       <c r="E92" t="s">
-        <v>311</v>
+        <v>409</v>
       </c>
       <c r="F92" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G92" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H92" t="s">
-        <v>370</v>
+        <v>444</v>
       </c>
       <c r="I92" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J92" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K92" t="s">
-        <v>410</v>
+        <v>482</v>
       </c>
       <c r="L92" t="s">
         <v>122</v>
@@ -6322,13 +6580,13 @@
         <v>121</v>
       </c>
       <c r="N92" t="s">
-        <v>437</v>
+        <v>521</v>
       </c>
       <c r="O92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6345,37 +6603,37 @@
         <v>105</v>
       </c>
       <c r="E93" t="s">
-        <v>313</v>
+        <v>410</v>
       </c>
       <c r="F93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G93" t="s">
         <v>145</v>
       </c>
       <c r="H93" t="s">
-        <v>371</v>
+        <v>445</v>
       </c>
       <c r="I93" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="J93" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K93" t="s">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="L93" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="M93" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N93" t="s">
-        <v>438</v>
+        <v>522</v>
       </c>
       <c r="O93" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P93" t="s">
         <v>146</v>
@@ -6395,37 +6653,37 @@
         <v>106</v>
       </c>
       <c r="E94" t="s">
-        <v>305</v>
+        <v>411</v>
       </c>
       <c r="F94" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G94" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H94" t="s">
-        <v>372</v>
+        <v>446</v>
       </c>
       <c r="I94" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J94" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K94" t="s">
-        <v>299</v>
+        <v>475</v>
       </c>
       <c r="L94" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M94" t="s">
         <v>144</v>
       </c>
       <c r="N94" t="s">
-        <v>318</v>
+        <v>523</v>
       </c>
       <c r="O94" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P94" t="s">
         <v>144</v>
@@ -6445,40 +6703,40 @@
         <v>106</v>
       </c>
       <c r="E95" t="s">
-        <v>314</v>
+        <v>412</v>
       </c>
       <c r="F95" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H95" t="s">
-        <v>373</v>
+        <v>447</v>
       </c>
       <c r="I95" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J95" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K95" t="s">
-        <v>337</v>
+        <v>447</v>
       </c>
       <c r="L95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M95" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N95" t="s">
-        <v>412</v>
+        <v>524</v>
       </c>
       <c r="O95" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6495,40 +6753,40 @@
         <v>106</v>
       </c>
       <c r="E96" t="s">
-        <v>317</v>
+        <v>413</v>
       </c>
       <c r="F96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G96" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H96" t="s">
-        <v>284</v>
+        <v>448</v>
       </c>
       <c r="I96" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J96" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K96" t="s">
-        <v>408</v>
+        <v>484</v>
       </c>
       <c r="L96" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N96" t="s">
-        <v>439</v>
+        <v>525</v>
       </c>
       <c r="O96" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6545,37 +6803,37 @@
         <v>106</v>
       </c>
       <c r="E97" t="s">
-        <v>319</v>
+        <v>414</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G97" t="s">
         <v>144</v>
       </c>
       <c r="H97" t="s">
-        <v>320</v>
+        <v>449</v>
       </c>
       <c r="I97" t="s">
         <v>145</v>
       </c>
       <c r="J97" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K97" t="s">
-        <v>331</v>
+        <v>485</v>
       </c>
       <c r="L97" t="s">
         <v>145</v>
       </c>
       <c r="M97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N97" t="s">
-        <v>440</v>
+        <v>526</v>
       </c>
       <c r="O97" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P97" t="s">
         <v>147</v>
@@ -6595,40 +6853,40 @@
         <v>106</v>
       </c>
       <c r="E98" t="s">
-        <v>321</v>
+        <v>415</v>
       </c>
       <c r="F98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G98" t="s">
         <v>145</v>
       </c>
       <c r="H98" t="s">
-        <v>374</v>
+        <v>450</v>
       </c>
       <c r="I98" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J98" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K98" t="s">
-        <v>413</v>
+        <v>486</v>
       </c>
       <c r="L98" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M98" t="s">
         <v>121</v>
       </c>
       <c r="N98" t="s">
-        <v>441</v>
+        <v>527</v>
       </c>
       <c r="O98" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6645,40 +6903,40 @@
         <v>106</v>
       </c>
       <c r="E99" t="s">
-        <v>322</v>
+        <v>416</v>
       </c>
       <c r="F99" t="s">
         <v>122</v>
       </c>
       <c r="G99" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H99" t="s">
-        <v>376</v>
+        <v>451</v>
       </c>
       <c r="I99" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K99" t="s">
-        <v>414</v>
+        <v>532</v>
       </c>
       <c r="L99" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="M99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N99" t="s">
-        <v>442</v>
+        <v>528</v>
       </c>
       <c r="O99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -6688,37 +6946,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>443</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>535</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>